--- a/Resultados/Resumo_Geral_LM_16ha.xlsx
+++ b/Resultados/Resumo_Geral_LM_16ha.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://xmobotsaeroespacial-my.sharepoint.com/personal/paulo_acorinte_xmobots_com_br/Documents/Área de Trabalho/Repositorios/simulador/Resultados/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://xmobotsaeroespacial-my.sharepoint.com/personal/enrico_abreu_xmobots_com_br/Documents/Área de Trabalho/Repositorios/simulador/Resultados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="8_{45C51566-B620-4A6C-AFF5-AF0A174B56AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2355FBC5-23BA-4CA5-AEBD-931811D2150E}"/>
+  <xr:revisionPtr revIDLastSave="87" documentId="8_{45C51566-B620-4A6C-AFF5-AF0A174B56AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{350B8BDC-D58F-4972-9F7C-0B88FF5162FD}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="6" activeTab="14" xr2:uid="{8F53DE04-4925-4C93-992B-F6470F0BF79B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8F53DE04-4925-4C93-992B-F6470F0BF79B}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="1" r:id="rId1"/>
@@ -282,7 +282,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pt-BR"/>
-              <a:t>LM</a:t>
+              <a:t>LM 16 ha</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -291,17 +291,24 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.9008364058096494E-2"/>
+          <c:y val="0.10122305853247442"/>
+          <c:w val="0.74056032273693762"/>
+          <c:h val="0.80009747575765244"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-DFE8-434D-8D64-22418A1EDBDC}"/>
@@ -312,12 +319,30 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>\field_16ha_100ha_2%_6m_0_LM\</c:v>
+            <c:v>16ha_2%_6m_LM</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="triangle"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>Planilha2!$C$2:$C$30</c:f>
               <c:numCache>
@@ -412,8 +437,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Planilha2!$I$2:$I$30</c:f>
               <c:numCache>
@@ -508,8 +533,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-DFE8-434D-8D64-22418A1EDBDC}"/>
@@ -520,12 +545,30 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>field_16ha_100ha_2%_12m_0_LM\</c:v>
+            <c:v>16ha_2%_12m_LM</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="square"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>Planilha3!$C$2:$C$30</c:f>
               <c:numCache>
@@ -620,8 +663,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Planilha3!$I$2:$I$30</c:f>
               <c:numCache>
@@ -716,8 +759,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-DFE8-434D-8D64-22418A1EDBDC}"/>
@@ -730,10 +773,7 @@
           <c:tx>
             <c:v>\field_16ha_100ha_6%_0m_0_LM\</c:v>
           </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>Planilha4!$C$1:$C$2</c:f>
               <c:numCache>
@@ -741,8 +781,8 @@
                 <c:ptCount val="2"/>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Planilha4!$I$1:$I$2</c:f>
               <c:numCache>
@@ -750,8 +790,8 @@
                 <c:ptCount val="2"/>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-DFE8-434D-8D64-22418A1EDBDC}"/>
@@ -762,12 +802,30 @@
           <c:idx val="4"/>
           <c:order val="4"/>
           <c:tx>
-            <c:v>\field_16ha_100ha_6%_6m_0_LM\</c:v>
+            <c:v>16ha_6%_6m_LM</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="triangle"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>Planilha5!$C$2:$C$30</c:f>
               <c:numCache>
@@ -862,8 +920,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Planilha5!$I$2:$I$30</c:f>
               <c:numCache>
@@ -958,8 +1016,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-DFE8-434D-8D64-22418A1EDBDC}"/>
@@ -970,12 +1028,30 @@
           <c:idx val="5"/>
           <c:order val="5"/>
           <c:tx>
-            <c:v>field_16ha_100ha_6%_12m_0_LM\</c:v>
+            <c:v>16ha_6%_12m_LM</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="square"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>Planilha6!$C$2:$C$30</c:f>
               <c:numCache>
@@ -1070,8 +1146,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Planilha6!$I$2:$I$30</c:f>
               <c:numCache>
@@ -1166,8 +1242,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-DFE8-434D-8D64-22418A1EDBDC}"/>
@@ -1180,10 +1256,7 @@
           <c:tx>
             <c:v>field_16ha_100ha_10%_0m_0_LM\</c:v>
           </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>Planilha7!$C$1:$C$2</c:f>
               <c:numCache>
@@ -1191,8 +1264,8 @@
                 <c:ptCount val="2"/>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Planilha7!$I$1:$I$2</c:f>
               <c:numCache>
@@ -1200,8 +1273,8 @@
                 <c:ptCount val="2"/>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-DFE8-434D-8D64-22418A1EDBDC}"/>
@@ -1212,12 +1285,30 @@
           <c:idx val="7"/>
           <c:order val="7"/>
           <c:tx>
-            <c:v>field_16ha_100ha_10%_6m_0_LM\</c:v>
+            <c:v>16ha_10%_6m_LM</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="triangle"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>Planilha8!$C$2:$C$30</c:f>
               <c:numCache>
@@ -1312,8 +1403,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Planilha8!$I$2:$I$30</c:f>
               <c:numCache>
@@ -1408,8 +1499,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-DFE8-434D-8D64-22418A1EDBDC}"/>
@@ -1420,12 +1511,30 @@
           <c:idx val="8"/>
           <c:order val="8"/>
           <c:tx>
-            <c:v>ield_16ha_100ha_10%_12m_0_LM\</c:v>
+            <c:v>16ha_10%_12m_LM</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="square"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>Planilha9!$C$2:$C$30</c:f>
               <c:numCache>
@@ -1520,8 +1629,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Planilha9!$I$2:$I$30</c:f>
               <c:numCache>
@@ -1616,8 +1725,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-DFE8-434D-8D64-22418A1EDBDC}"/>
@@ -1630,10 +1739,7 @@
           <c:tx>
             <c:v>field_16ha_100ha_14%_0m_0_LM\</c:v>
           </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>Planilha10!$C$1:$C$2</c:f>
               <c:numCache>
@@ -1641,8 +1747,8 @@
                 <c:ptCount val="2"/>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Planilha10!$I$1:$I$2</c:f>
               <c:numCache>
@@ -1650,8 +1756,8 @@
                 <c:ptCount val="2"/>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000009-DFE8-434D-8D64-22418A1EDBDC}"/>
@@ -1664,10 +1770,7 @@
           <c:tx>
             <c:v/>
           </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>Planilha11!$C$1:$C$2</c:f>
               <c:numCache>
@@ -1675,8 +1778,8 @@
                 <c:ptCount val="2"/>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Planilha11!$I$1:$I$2</c:f>
               <c:numCache>
@@ -1684,8 +1787,8 @@
                 <c:ptCount val="2"/>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000A-DFE8-434D-8D64-22418A1EDBDC}"/>
@@ -1696,12 +1799,30 @@
           <c:idx val="11"/>
           <c:order val="11"/>
           <c:tx>
-            <c:v>ield_16ha_100ha_14%_12m_0_LM\</c:v>
+            <c:v>16ha_14%_12m_LM</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="square"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>Planilha12!$C$2:$C$30</c:f>
               <c:numCache>
@@ -1796,8 +1917,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Planilha12!$I$2:$I$30</c:f>
               <c:numCache>
@@ -1892,8 +2013,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000B-DFE8-434D-8D64-22418A1EDBDC}"/>
@@ -1906,10 +2027,7 @@
           <c:tx>
             <c:v>field_16ha_100ha_18%_0m_0_LM\</c:v>
           </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>Planilha13!$C$1:$C$2</c:f>
               <c:numCache>
@@ -1917,8 +2035,8 @@
                 <c:ptCount val="2"/>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Planilha13!$I$1:$I$2</c:f>
               <c:numCache>
@@ -1926,8 +2044,8 @@
                 <c:ptCount val="2"/>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000C-DFE8-434D-8D64-22418A1EDBDC}"/>
@@ -1938,12 +2056,30 @@
           <c:idx val="13"/>
           <c:order val="13"/>
           <c:tx>
-            <c:v>field_16ha_100ha_18%_6m_0_LM\</c:v>
+            <c:v>16ha_18%_6m_LM</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="triangle"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="7030A0"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>Planilha14!$C$2:$C$30</c:f>
               <c:numCache>
@@ -2038,8 +2174,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Planilha14!$I$2:$I$30</c:f>
               <c:numCache>
@@ -2134,8 +2270,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000D-DFE8-434D-8D64-22418A1EDBDC}"/>
@@ -2146,12 +2282,30 @@
           <c:idx val="14"/>
           <c:order val="14"/>
           <c:tx>
-            <c:v>ield_16ha_100ha_18%_12m_0_LM\</c:v>
+            <c:v>16ha_18%_12m_LM</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="square"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="7030A0"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>Planilha15!$C$2:$C$30</c:f>
               <c:numCache>
@@ -2246,8 +2400,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Planilha15!$I$2:$I$30</c:f>
               <c:numCache>
@@ -2342,8 +2496,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000E-DFE8-434D-8D64-22418A1EDBDC}"/>
@@ -2358,27 +2512,41 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
         <c:axId val="1101051376"/>
         <c:axId val="1101054736"/>
-      </c:lineChart>
-      <c:catAx>
+      </c:scatterChart>
+      <c:valAx>
         <c:axId val="1101051376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Volume de Tanque de Pulverização [L]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1101054736"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
         <c:axId val="1101054736"/>
         <c:scaling>
@@ -2387,18 +2555,44 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Capacidade Operacional Máxima [ha/h]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1101051376"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
       <c:legendEntry>
         <c:idx val="0"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="6"/>
         <c:delete val="1"/>
       </c:legendEntry>
       <c:legendEntry>
@@ -2409,6 +2603,20 @@
         <c:idx val="10"/>
         <c:delete val="1"/>
       </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="12"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.78409864032616916"/>
+          <c:y val="5.7229785298773636E-2"/>
+          <c:w val="0.2079570090988305"/>
+          <c:h val="0.84992118055555554"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2434,16 +2642,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>33020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>2540</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>530325</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>78020</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2791,11 +2999,11 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V26" sqref="V26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -2809,9 +3017,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P1" t="s">
         <v>46</v>
       </c>
@@ -2828,7 +3036,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -2843,9 +3051,9 @@
       <selection sqref="A1:P30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2877,7 +3085,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -2909,7 +3117,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -2935,7 +3143,7 @@
         <v>1.8284</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -2961,7 +3169,7 @@
         <v>1.9727359999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -2987,7 +3195,7 @@
         <v>2.04792</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -3013,7 +3221,7 @@
         <v>2.0985119999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -3039,7 +3247,7 @@
         <v>2.1418240000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -3065,7 +3273,7 @@
         <v>2.1640320000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -3091,7 +3299,7 @@
         <v>2.171856</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -3117,7 +3325,7 @@
         <v>2.1826400000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -3143,7 +3351,7 @@
         <v>2.196288</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -3169,7 +3377,7 @@
         <v>2.1962079999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -3195,7 +3403,7 @@
         <v>2.1957119999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -3221,7 +3429,7 @@
         <v>2.1901920000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -3247,7 +3455,7 @@
         <v>2.190528</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -3273,7 +3481,7 @@
         <v>2.2189760000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -3299,7 +3507,7 @@
         <v>2.1842239999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -3325,7 +3533,7 @@
         <v>2.157216</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -3351,7 +3559,7 @@
         <v>2.1513439999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -3377,7 +3585,7 @@
         <v>2.1503839999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -3403,7 +3611,7 @@
         <v>2.147408</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -3429,7 +3637,7 @@
         <v>2.1281280000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -3455,7 +3663,7 @@
         <v>2.126096</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -3481,7 +3689,7 @@
         <v>2.1087359999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -3507,7 +3715,7 @@
         <v>2.105648</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -3533,7 +3741,7 @@
         <v>2.090144</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -3559,7 +3767,7 @@
         <v>2.0702240000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -3585,7 +3793,7 @@
         <v>2.0712000000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -3611,7 +3819,7 @@
         <v>2.0547999999999997</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -3649,9 +3857,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P1" t="s">
         <v>48</v>
       </c>
@@ -3670,9 +3878,9 @@
       <selection sqref="A1:P30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -3704,7 +3912,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -3736,7 +3944,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -3762,7 +3970,7 @@
         <v>1.21696</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -3788,7 +3996,7 @@
         <v>1.2889920000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -3814,7 +4022,7 @@
         <v>1.3329920000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -3840,7 +4048,7 @@
         <v>1.3620320000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -3866,7 +4074,7 @@
         <v>1.3763839999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -3892,7 +4100,7 @@
         <v>1.3908</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -3918,7 +4126,7 @@
         <v>1.4016</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -3944,7 +4152,7 @@
         <v>1.4159680000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -3970,7 +4178,7 @@
         <v>1.4127359999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -3996,7 +4204,7 @@
         <v>1.4135040000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -4022,7 +4230,7 @@
         <v>1.412704</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -4048,7 +4256,7 @@
         <v>1.412704</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -4074,7 +4282,7 @@
         <v>1.4155520000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -4100,7 +4308,7 @@
         <v>1.411424</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -4126,7 +4334,7 @@
         <v>1.4076960000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -4152,7 +4360,7 @@
         <v>1.4049440000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -4178,7 +4386,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -4204,7 +4412,7 @@
         <v>1.4082079999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -4230,7 +4438,7 @@
         <v>1.4006399999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -4256,7 +4464,7 @@
         <v>1.3895519999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -4282,7 +4490,7 @@
         <v>1.38792</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -4308,7 +4516,7 @@
         <v>1.3860480000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -4334,7 +4542,7 @@
         <v>1.3775679999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -4360,7 +4568,7 @@
         <v>1.3772960000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -4386,7 +4594,7 @@
         <v>1.3703200000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -4412,7 +4620,7 @@
         <v>1.3687200000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -4438,7 +4646,7 @@
         <v>1.3635360000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -4474,13 +4682,13 @@
   <sheetPr codeName="Planilha15"/>
   <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -4512,7 +4720,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -4544,7 +4752,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -4570,7 +4778,7 @@
         <v>1.6913279999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -4596,7 +4804,7 @@
         <v>1.8438560000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -4622,7 +4830,7 @@
         <v>1.9339199999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -4648,7 +4856,7 @@
         <v>1.994256</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -4674,7 +4882,7 @@
         <v>2.0367679999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -4700,7 +4908,7 @@
         <v>2.0668160000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -4726,7 +4934,7 @@
         <v>2.0886240000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -4752,7 +4960,7 @@
         <v>2.1067200000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -4778,7 +4986,7 @@
         <v>2.1161760000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -4804,7 +5012,7 @@
         <v>2.1151520000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -4830,7 +5038,7 @@
         <v>2.1266400000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -4856,7 +5064,7 @@
         <v>2.1167199999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -4882,7 +5090,7 @@
         <v>2.1187360000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -4908,7 +5116,7 @@
         <v>2.1094239999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -4934,7 +5142,7 @@
         <v>2.1146879999999997</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -4960,7 +5168,7 @@
         <v>2.1104320000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -4986,7 +5194,7 @@
         <v>2.0979839999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -5012,7 +5220,7 @@
         <v>2.1254560000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -5038,7 +5246,7 @@
         <v>2.0880959999999997</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -5064,7 +5272,7 @@
         <v>2.071488</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -5090,7 +5298,7 @@
         <v>2.073664</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -5116,7 +5324,7 @@
         <v>2.0525919999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -5142,7 +5350,7 @@
         <v>2.0505439999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -5168,7 +5376,7 @@
         <v>2.0488</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -5194,7 +5402,7 @@
         <v>2.0334719999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -5220,7 +5428,7 @@
         <v>2.0123679999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -5246,7 +5454,7 @@
         <v>2.0152480000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -5286,9 +5494,9 @@
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -5320,7 +5528,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -5352,7 +5560,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -5378,7 +5586,7 @@
         <v>1.5964959999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -5404,7 +5612,7 @@
         <v>1.6084000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -5430,7 +5638,7 @@
         <v>1.610608</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -5456,7 +5664,7 @@
         <v>1.6083519999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -5482,7 +5690,7 @@
         <v>1.602576</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -5508,7 +5716,7 @@
         <v>1.5961920000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -5534,7 +5742,7 @@
         <v>1.592176</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -5560,7 +5768,7 @@
         <v>1.5875680000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -5586,7 +5794,7 @@
         <v>1.5805439999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -5612,7 +5820,7 @@
         <v>1.5726079999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -5638,7 +5846,7 @@
         <v>1.5630080000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -5664,7 +5872,7 @@
         <v>1.5600479999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -5690,7 +5898,7 @@
         <v>1.553696</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -5716,7 +5924,7 @@
         <v>1.5451519999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -5742,7 +5950,7 @@
         <v>1.537072</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -5768,7 +5976,7 @@
         <v>1.5292320000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -5794,7 +6002,7 @@
         <v>1.5214400000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -5820,7 +6028,7 @@
         <v>1.519552</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -5846,7 +6054,7 @@
         <v>1.5136799999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -5872,7 +6080,7 @@
         <v>1.5060800000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -5898,7 +6106,7 @@
         <v>1.49864</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -5924,7 +6132,7 @@
         <v>1.4912639999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -5950,7 +6158,7 @@
         <v>1.475104</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -5976,7 +6184,7 @@
         <v>1.4678559999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -6002,7 +6210,7 @@
         <v>1.4605920000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -6028,7 +6236,7 @@
         <v>1.453328</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -6054,7 +6262,7 @@
         <v>1.446256</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -6094,9 +6302,9 @@
       <selection sqref="A1:P30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -6128,7 +6336,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -6160,7 +6368,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -6186,7 +6394,7 @@
         <v>2.5760320000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -6212,7 +6420,7 @@
         <v>2.5894560000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -6238,7 +6446,7 @@
         <v>2.6029119999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -6264,7 +6472,7 @@
         <v>2.5967039999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -6290,7 +6498,7 @@
         <v>2.5938880000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -6316,7 +6524,7 @@
         <v>2.576832</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -6342,7 +6550,7 @@
         <v>2.56</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -6368,7 +6576,7 @@
         <v>2.5406880000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -6394,7 +6602,7 @@
         <v>2.5291999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -6420,7 +6628,7 @@
         <v>2.51024</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -6446,7 +6654,7 @@
         <v>2.4913439999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -6472,7 +6680,7 @@
         <v>2.4834079999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -6498,7 +6706,7 @@
         <v>2.4678720000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -6524,7 +6732,7 @@
         <v>2.4473120000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -6550,7 +6758,7 @@
         <v>2.4265919999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -6576,7 +6784,7 @@
         <v>2.4065119999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -6602,7 +6810,7 @@
         <v>2.3868799999999997</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -6628,7 +6836,7 @@
         <v>2.367648</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -6654,7 +6862,7 @@
         <v>2.365408</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -6680,7 +6888,7 @@
         <v>2.3499680000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -6706,7 +6914,7 @@
         <v>2.3320799999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -6732,7 +6940,7 @@
         <v>2.3140960000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -6758,7 +6966,7 @@
         <v>2.2963839999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -6784,7 +6992,7 @@
         <v>2.2791200000000003</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -6810,7 +7018,7 @@
         <v>2.2622879999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -6836,7 +7044,7 @@
         <v>2.2451840000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -6862,7 +7070,7 @@
         <v>2.228672</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -6900,9 +7108,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P1" t="s">
         <v>40</v>
       </c>
@@ -6921,9 +7129,9 @@
       <selection sqref="A1:P30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -6955,7 +7163,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -6987,7 +7195,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -7013,7 +7221,7 @@
         <v>1.4730400000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -7039,7 +7247,7 @@
         <v>1.5084</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -7065,7 +7273,7 @@
         <v>1.524176</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -7091,7 +7299,7 @@
         <v>1.531312</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -7117,7 +7325,7 @@
         <v>1.5350239999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -7143,7 +7351,7 @@
         <v>1.5373599999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -7169,7 +7377,7 @@
         <v>1.5323199999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -7195,7 +7403,7 @@
         <v>1.5352959999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -7221,7 +7429,7 @@
         <v>1.530688</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -7247,7 +7455,7 @@
         <v>1.5276159999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -7273,7 +7481,7 @@
         <v>1.5179040000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -7299,7 +7507,7 @@
         <v>1.5187520000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -7325,7 +7533,7 @@
         <v>1.5147520000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -7351,7 +7559,7 @@
         <v>1.503952</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -7377,7 +7585,7 @@
         <v>1.4961760000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -7403,7 +7611,7 @@
         <v>1.4983680000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -7429,7 +7637,7 @@
         <v>1.490256</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -7455,7 +7663,7 @@
         <v>1.486944</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -7481,7 +7689,7 @@
         <v>1.4797280000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -7507,7 +7715,7 @@
         <v>1.472272</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -7533,7 +7741,7 @@
         <v>1.4649760000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -7559,7 +7767,7 @@
         <v>1.4617760000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -7585,7 +7793,7 @@
         <v>1.4575200000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -7611,7 +7819,7 @@
         <v>1.4498880000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -7637,7 +7845,7 @@
         <v>1.4433119999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -7663,7 +7871,7 @@
         <v>1.4345439999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -7689,7 +7897,7 @@
         <v>1.4283519999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -7729,9 +7937,9 @@
       <selection sqref="A1:P30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -7763,7 +7971,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -7795,7 +8003,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -7821,7 +8029,7 @@
         <v>2.2572320000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -7847,7 +8055,7 @@
         <v>2.3382239999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -7873,7 +8081,7 @@
         <v>2.3763360000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -7899,7 +8107,7 @@
         <v>2.3933119999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -7925,7 +8133,7 @@
         <v>2.4159039999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -7951,7 +8159,7 @@
         <v>2.4105439999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -7977,7 +8185,7 @@
         <v>2.413376</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -8003,7 +8211,7 @@
         <v>2.4028960000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -8029,7 +8237,7 @@
         <v>2.39432</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -8055,7 +8263,7 @@
         <v>2.3810560000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -8081,7 +8289,7 @@
         <v>2.3746719999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -8107,7 +8315,7 @@
         <v>2.3780959999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -8133,7 +8341,7 @@
         <v>2.3529439999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -8159,7 +8367,7 @@
         <v>2.3451840000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -8185,7 +8393,7 @@
         <v>2.3238880000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -8211,7 +8419,7 @@
         <v>2.3208959999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -8237,7 +8445,7 @@
         <v>2.3034400000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -8263,7 +8471,7 @@
         <v>2.2821760000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -8289,7 +8497,7 @@
         <v>2.285072</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -8315,7 +8523,7 @@
         <v>2.2710239999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -8341,7 +8549,7 @@
         <v>2.2528160000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -8367,7 +8575,7 @@
         <v>2.2334239999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -8393,7 +8601,7 @@
         <v>2.226864</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -8419,7 +8627,7 @@
         <v>2.2097759999999997</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -8445,7 +8653,7 @@
         <v>2.1937920000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -8471,7 +8679,7 @@
         <v>2.176704</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -8497,7 +8705,7 @@
         <v>2.1637919999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -8535,9 +8743,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P1" t="s">
         <v>43</v>
       </c>
@@ -8556,9 +8764,9 @@
       <selection sqref="A1:P30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -8590,7 +8798,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -8622,7 +8830,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -8648,7 +8856,7 @@
         <v>1.3781600000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -8674,7 +8882,7 @@
         <v>1.4246080000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -8700,7 +8908,7 @@
         <v>1.4552</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -8726,7 +8934,7 @@
         <v>1.4723200000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -8752,7 +8960,7 @@
         <v>1.479312</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -8778,7 +8986,7 @@
         <v>1.48472</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -8804,7 +9012,7 @@
         <v>1.4909600000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -8830,7 +9038,7 @@
         <v>1.4903679999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -8856,7 +9064,7 @@
         <v>1.482208</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -8882,7 +9090,7 @@
         <v>1.489792</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -8908,7 +9116,7 @@
         <v>1.484192</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -8934,7 +9142,7 @@
         <v>1.4791999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -8960,7 +9168,7 @@
         <v>1.4768160000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -8986,7 +9194,7 @@
         <v>1.4754879999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -9012,7 +9220,7 @@
         <v>1.4718719999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -9038,7 +9246,7 @@
         <v>1.4643039999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -9064,7 +9272,7 @@
         <v>1.4630400000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -9090,7 +9298,7 @@
         <v>1.4541440000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -9116,7 +9324,7 @@
         <v>1.45224</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -9142,7 +9350,7 @@
         <v>1.4449920000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -9168,7 +9376,7 @@
         <v>1.4397120000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -9194,7 +9402,7 @@
         <v>1.437408</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -9220,7 +9428,7 @@
         <v>1.4286719999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -9246,7 +9454,7 @@
         <v>1.4211039999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -9272,7 +9480,7 @@
         <v>1.4200159999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -9298,7 +9506,7 @@
         <v>1.41472</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -9324,7 +9532,7 @@
         <v>1.4092799999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -9364,9 +9572,9 @@
       <selection sqref="A1:P30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -9398,7 +9606,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -9430,7 +9638,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -9456,7 +9664,7 @@
         <v>2.031536</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -9482,7 +9690,7 @@
         <v>2.1463679999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -9508,7 +9716,7 @@
         <v>2.2130879999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -9534,7 +9742,7 @@
         <v>2.2445599999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -9560,7 +9768,7 @@
         <v>2.27488</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -9586,7 +9794,7 @@
         <v>2.281552</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -9612,7 +9820,7 @@
         <v>2.2928160000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -9638,7 +9846,7 @@
         <v>2.295728</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -9664,7 +9872,7 @@
         <v>2.290896</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -9690,7 +9898,7 @@
         <v>2.3063039999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -9716,7 +9924,7 @@
         <v>2.296656</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -9742,7 +9950,7 @@
         <v>2.286896</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -9768,7 +9976,7 @@
         <v>2.2789280000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -9794,7 +10002,7 @@
         <v>2.2574079999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -9820,7 +10028,7 @@
         <v>2.2546719999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -9846,7 +10054,7 @@
         <v>2.2453440000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -9872,7 +10080,7 @@
         <v>2.2259200000000003</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -9898,7 +10106,7 @@
         <v>2.2241119999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -9924,7 +10132,7 @@
         <v>2.2014080000000003</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -9950,7 +10158,7 @@
         <v>2.204272</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -9976,7 +10184,7 @@
         <v>2.1974719999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -10002,7 +10210,7 @@
         <v>2.1753119999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -10028,7 +10236,7 @@
         <v>2.1672799999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -10054,7 +10262,7 @@
         <v>2.1485280000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -10080,7 +10288,7 @@
         <v>2.1297760000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -10106,7 +10314,7 @@
         <v>2.133248</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -10132,7 +10340,7 @@
         <v>2.1147679999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>38</v>
       </c>
